--- a/examples_timings.xlsx
+++ b/examples_timings.xlsx
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1" count="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2" count="2">
   <si>
     <t>Intel core i9-9900K@3.6GHz</t>
+  </si>
+  <si>
+    <t>7.0.1 (develop)</t>
   </si>
 </sst>
 </file>
@@ -97,17 +100,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" style="0" width="10.999338942307693" bestFit="1" customWidth="1"/>
     <col min="2" max="2" style="0" width="16.28473557692308" customWidth="1"/>
-    <col min="3" max="256" style="0" width="9.142307692307693"/>
+    <col min="3" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -243,6 +246,62 @@
       <c r="L7" t="inlineStr">
         <is>
           <t>I was expecting this to be a lot quicker!</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>44498</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>589.29999999999995</v>
+      </c>
+      <c r="D8">
+        <v>20.829999999999998</v>
+      </c>
+      <c r="E8">
+        <v>262</v>
+      </c>
+      <c r="F8">
+        <v>232.59</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>A bit better.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>44498</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>469.01999999999998</v>
+      </c>
+      <c r="D9">
+        <v>19.469999999999999</v>
+      </c>
+      <c r="E9">
+        <v>453</v>
+      </c>
+      <c r="F9">
+        <v>107.65000000000001</v>
+      </c>
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Removed excel checking</t>
         </is>
       </c>
     </row>
@@ -271,8 +330,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" style="0" width="9.142307692307693"/>
-    <col min="2" max="256" style="0" width="9.142307692307693"/>
+    <col min="1" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData/>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
@@ -299,8 +357,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" style="0" width="9.142307692307693"/>
-    <col min="2" max="256" style="0" width="9.142307692307693"/>
+    <col min="1" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData/>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>

--- a/examples_timings.xlsx
+++ b/examples_timings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="20000" windowHeight="8050"/>
+    <workbookView activeTab="0" windowWidth="19200" windowHeight="8050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2" count="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3" count="3">
+  <si>
+    <t>Linux</t>
+  </si>
   <si>
     <t>Intel core i9-9900K@3.6GHz</t>
   </si>
@@ -100,10 +103,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -158,6 +161,11 @@
           <t>Total</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>OS</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>Machine</t>
@@ -190,8 +198,11 @@
       <c r="F5">
         <v>296.36000000000001</v>
       </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
       <c r="H5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -215,8 +226,11 @@
       <c r="F6">
         <v>294.24000000000001</v>
       </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
       <c r="H6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -240,8 +254,11 @@
       <c r="F7">
         <v>251.06</v>
       </c>
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
       <c r="H7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -254,7 +271,7 @@
         <v>44498</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>589.29999999999995</v>
@@ -268,8 +285,11 @@
       <c r="F8">
         <v>232.59</v>
       </c>
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
       <c r="H8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -282,7 +302,7 @@
         <v>44498</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>469.01999999999998</v>
@@ -296,12 +316,48 @@
       <c r="F9">
         <v>107.65000000000001</v>
       </c>
+      <c r="G9" t="s">
+        <v>0</v>
+      </c>
       <c r="H9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
           <t>Removed excel checking</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>44498</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>599.09000000000003</v>
+      </c>
+      <c r="D10">
+        <v>11.529999999999999</v>
+      </c>
+      <c r="E10">
+        <v>176</v>
+      </c>
+      <c r="F10">
+        <v>346.07999999999998</v>
+      </c>
+      <c r="G10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Intel skylake (core m7) Intel Core(TM)i7-6500U@2.50GHz</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Need to make sure only 1 thread was used for BLAS and for OMP</t>
         </is>
       </c>
     </row>

--- a/examples_timings.xlsx
+++ b/examples_timings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="19200" windowHeight="8050"/>
+    <workbookView activeTab="0" windowWidth="9660" windowHeight="8050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3" count="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5" count="5">
   <si>
     <t>Linux</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>7.0.1 (develop)</t>
+  </si>
+  <si>
+    <t>Intel skylake (core m7) Intel Core(TM)i7-6500U@2.50GHz</t>
+  </si>
+  <si>
+    <t>Windows</t>
   </si>
 </sst>
 </file>
@@ -103,17 +109,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" style="0" width="10.999338942307693" bestFit="1" customWidth="1"/>
     <col min="2" max="2" style="0" width="16.28473557692308" customWidth="1"/>
-    <col min="3" max="16384" style="0" width="9.142307692307693"/>
+    <col min="3" max="5" style="0" width="9.142307692307693"/>
+    <col min="6" max="6" style="0" width="9.285156250000002" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -350,14 +358,63 @@
       <c r="G10" t="s">
         <v>0</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Intel skylake (core m7) Intel Core(TM)i7-6500U@2.50GHz</t>
-        </is>
+      <c r="H10" t="s">
+        <v>3</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
           <t>Need to make sure only 1 thread was used for BLAS and for OMP</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
+        <v>44498</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1419.2529999999999</v>
+      </c>
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1">
+        <v>44498</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1104.95</v>
+      </c>
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Added Num_THREAD=1 and OMP_NUM_THREAD=1</t>
         </is>
       </c>
     </row>
